--- a/medicine/Hématologie/Classe_ATC_B03/Classe_ATC_B03.xlsx
+++ b/medicine/Hématologie/Classe_ATC_B03/Classe_ATC_B03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classe ATC B03, dénommée « Préparations anti-anémiques », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux[1]. La classe ATC vétérinaire correspondante dans la classification ATCvet est QB03[2]. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique B de la classification, intitulé « Sang et organes hématopoïétiques ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classe ATC B03, dénommée « Préparations anti-anémiques », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux. La classe ATC vétérinaire correspondante dans la classification ATCvet est QB03. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique B de la classification, intitulé « Sang et organes hématopoïétiques ».
 </t>
         </is>
       </c>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>B03AA Fer bivalent, préparations orales
-B03AA01 Sulfate ferreux - glycine
+          <t>B03AA Fer bivalent, préparations orales</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>B03AA01 Sulfate ferreux - glycine
 B03AA02 Fumarate ferreux (en)
 B03AA03 Gluconate ferreux
 B03AA04 Carbonate ferreux
@@ -524,9 +541,43 @@
 B03AA08 Tartrate ferreux (en)
 B03AA09 Aspartate ferreux
 B03AA10 Ascorbate ferreux
-B03AA11 Iodure ferreux
-B03AB Fer trivalent, préparations orales
-B03AB01 Citrate de fer sodique
+B03AA11 Iodure ferreux</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Classe_ATC_B03</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Hématologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_B03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>B03A Préparations martiales</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>B03AB Fer trivalent, préparations orales</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>B03AB01 Citrate de fer sodique
 B03AB02 Oxyde de fer sucré
 B03AB03 Édétate de fer sodique
 B03AB04 Hydroxyde ferrique
@@ -535,16 +586,119 @@
 B03AB08 Acétyl transferrine ferrique
 B03AB09 Protéïnosuccinylate ferrique
 B03AB10 Maltol ferrique
-QB03AB90 Complexes de fer dextran
-B03AC Fer trivalent, préparations parentérales
-Depuis 2014[3], les classes de 5e niveau ont été supprimées : anciennement B03AC01 (Complexe oxyde ferrique - polymaltose), B03AC02 (Oxyde de fer sucré), B03AC03 (Complexe fer - sorbitol - acide citrique), B03AC05 (Complexe sorbitol ferrique - acide gluconique),  B03AC06 (Complexe oxyde ferrique - dextran), B03AC07 (Complexe fer sodique - gluconate). Les produits sont tous regroupés dans la classe de 4e niveau (B03AC).
-B03AD Fer en association avec l'acide folique
-B03AD01 Complexe d'acides aminés ferreux
+QB03AB90 Complexes de fer dextran</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Classe_ATC_B03</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Hématologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_B03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>B03A Préparations martiales</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>B03AC Fer trivalent, préparations parentérales</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis 2014, les classes de 5e niveau ont été supprimées : anciennement B03AC01 (Complexe oxyde ferrique - polymaltose), B03AC02 (Oxyde de fer sucré), B03AC03 (Complexe fer - sorbitol - acide citrique), B03AC05 (Complexe sorbitol ferrique - acide gluconique),  B03AC06 (Complexe oxyde ferrique - dextran), B03AC07 (Complexe fer sodique - gluconate). Les produits sont tous regroupés dans la classe de 4e niveau (B03AC).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Classe_ATC_B03</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Hématologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_B03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>B03A Préparations martiales</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>B03AD Fer en association avec l'acide folique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>B03AD01 Complexe d'acides aminés ferreux
 B03AD02 Fumarate ferreux (en)
 B03AD03 Sulfate ferreux
-B03AD04 Complexe oxyde ferrique - polymaltose
-B03AE Fer dans d'autres associations
-B03AE01 Fer, vitamine B12 et acide folique
+B03AD04 Complexe oxyde ferrique - polymaltose</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Classe_ATC_B03</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Hématologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_B03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>B03A Préparations martiales</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>B03AE Fer dans d'autres associations</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>B03AE01 Fer, vitamine B12 et acide folique
 B03AE02 Fer, polyvitamines et acide folique
 B03AE03 Fer et polyvitamines
 B03AE04 Fer, polyvitamines et minéraux
@@ -552,74 +706,118 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Classe_ATC_B03</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Hématologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Classe_ATC_B03</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>B03B Vitamine B12 et acide folique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>B03BA Vitamine B12 (cyanocobalamine et dérivés)
-B03BA01 Cyanocobalamine
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>B03BA Vitamine B12 (cyanocobalamine et dérivés)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>B03BA01 Cyanocobalamine
 B03BA02 Complexe cyanocobalamine - tanin
 B03BA03 Hydroxocobalamine
 B03BA04 Cobamamide
 B03BA05 Mécobalamine
 B03BA51 Cyanocobalamine en association
-B03BA53 Hydroxocobalamine en association
-B03BB Acide folique et dérivés
-B03BB01 Acide folique
+B03BA53 Hydroxocobalamine en association</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Classe_ATC_B03</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Hématologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_B03</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>B03B Vitamine B12 et acide folique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>B03BB Acide folique et dérivés</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>B03BB01 Acide folique
 B03BB51 Acide folique en association</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Classe_ATC_B03</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Hématologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Classe_ATC_B03</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>B03X Autres préparations anti-anémiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>B03XA Autres préparations anti-anémiques
-B03XA01 Érythropoïétine
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>B03XA Autres préparations anti-anémiques</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>B03XA01 Érythropoïétine
 B03XA02 Darbepoétine alfa
 B03XA03 Méthoxy poléthylèneglycol époétine bêta (en)
 B03XA04 Péginésatide</t>
